--- a/TestFiles/sample1/words/word_8.xlsx
+++ b/TestFiles/sample1/words/word_8.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.5313983000000011</v>
+        <v>0.5313982999999993</v>
       </c>
       <c r="B2">
-        <v>0.6600613000000006</v>
+        <v>0.6600612999999989</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
